--- a/Data_mapping_template_EPICC.xlsx
+++ b/Data_mapping_template_EPICC.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\littleh\Dropbox (Smithsonian)\EPICC Transcription\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\littleh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9165" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="11" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1925" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1960" uniqueCount="420">
   <si>
     <t>Column Name</t>
   </si>
@@ -1285,9 +1285,6 @@
     <t>batch is a placeholder for the current batch identifier, e.g. "NMNH-PALEO-20180105"</t>
   </si>
   <si>
-    <t>Original Script</t>
-  </si>
-  <si>
     <t>Field required for denoting note type when information is included in "NteText0"</t>
   </si>
   <si>
@@ -1325,6 +1322,129 @@
   </si>
   <si>
     <t>Field required if source of number is known when information is included in "CatOtherNumbersValue"</t>
+  </si>
+  <si>
+    <t>script language</t>
+  </si>
+  <si>
+    <t>jython</t>
+  </si>
+  <si>
+    <t>if value is not None:
+     return ""ID transcribed from label and not verified. Verbatim taxonomy:  "+  value
+else:
+    return None</t>
+  </si>
+  <si>
+    <t>if value is not None:
+     return "Unverified"
+else:
+    return None</t>
+  </si>
+  <si>
+    <t>if value is not None:
+     return "No"
+else:
+    return None</t>
+  </si>
+  <si>
+    <t>if value is not None:
+     return "Collector"
+else:
+    return None</t>
+  </si>
+  <si>
+    <t>OpenRefine Command</t>
+  </si>
+  <si>
+    <t>Split column based on ","</t>
+  </si>
+  <si>
+    <t>Split geography based on ","</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  {
+    "op": "core/column-addition",
+    "description": "Create column NteType_tab(+ group='ledger') at index 25 based on column NteText0(+ group='ledger') using expression jython:if value is not None: \n    return \"Comment\"\nelse:\n    return None",
+    "engineConfig": {
+      "mode": "row-based",
+      "facets": []
+    },
+    "newColumnName": "NteType_tab(+ group='ledger')",
+    "columnInsertIndex": 25,
+    "baseColumnName": "NteText0(+ group='ledger')",
+    "expression": "jython:if value is not None: \n    return \"Comment\"\nelse:\n    return None",
+    "onError": "set-to-blank"
+  },</t>
+  </si>
+  <si>
+    <t>if value is not None:
+     return "Comment"
+else:
+    return None</t>
+  </si>
+  <si>
+    <t>if value is not None:
+     return "Yes"
+else:
+    return None</t>
+  </si>
+  <si>
+    <t>if value is not None:
+     return "08-Dec-2017"
+else:
+    return None</t>
+  </si>
+  <si>
+    <t>if value is not None:
+     return "10214970"
+else:
+    return None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  {
+    "op": "core/column-addition",
+    "description": "Create column NteAttributedToRef_nesttab(+ group='ledger':1).irn at index 25 based on column NteText0(+ group='ledger') using expression jython:if value is not None:\n    return \"10214970\"\nelse:\n    return None",
+    "engineConfig": {
+      "mode": "row-based",
+      "facets": []
+    },
+    "newColumnName": "NteAttributedToRef_nesttab(+ group='ledger':1).irn",
+    "columnInsertIndex": 25,
+    "baseColumnName": "NteText0(+ group='ledger')",
+    "expression": "jython:if value is not None:\n    return \"10214970\"\nelse:\n    return None",
+    "onError": "set-to-blank"
+  },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  {
+    "op": "core/column-addition",
+    "description": "Create column NteDate0(+ group='ledger') at index 25 based on column NteText0(+ group='ledger') using expression jython:if value is not None:\n    return \"08-Dec-2017\"\nelse:\n    return None",
+    "engineConfig": {
+      "mode": "row-based",
+      "facets": []
+    },
+    "newColumnName": "NteDate0(+ group='ledger')",
+    "columnInsertIndex": 25,
+    "baseColumnName": "NteText0(+ group='ledger')",
+    "expression": "jython:if value is not None:\n    return \"08-Dec-2017\"\nelse:\n    return None",
+    "onError": "set-to-blank"
+  },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  {
+    "op": "core/column-addition",
+    "description": "Create column NteMetadata_tab(+ group='ledger') at index 25 based on column NteText0(+ group='ledger') using expression jython:if value is not None:\n    return \"Yes\"\nelse:\n    return None",
+    "engineConfig": {
+      "mode": "row-based",
+      "facets": []
+    },
+    "newColumnName": "NteMetadata_tab(+ group='ledger')",
+    "columnInsertIndex": 25,
+    "baseColumnName": "NteText0(+ group='ledger')",
+    "expression": "jython:if value is not None:\n    return \"Yes\"\nelse:\n    return None",
+    "onError": "set-to-blank"
+  },</t>
   </si>
 </sst>
 </file>
@@ -1527,7 +1647,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1537,12 +1657,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
@@ -1582,6 +1699,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1870,73 +1997,73 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="33.7109375" style="39"/>
+    <col min="1" max="16384" width="33.7109375" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="37" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="36" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="36" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="36" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="36" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="36" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="36" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="36" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="36" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
-      <c r="B14" s="39" t="s">
+      <c r="A14" s="39"/>
+      <c r="B14" s="36" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="40" t="s">
         <v>376</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="36" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="36" t="s">
         <v>377</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="36" t="s">
         <v>389</v>
       </c>
     </row>
@@ -2433,100 +2560,100 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="126.7109375" style="39" customWidth="1"/>
-    <col min="3" max="5" width="22.42578125" style="39" customWidth="1"/>
-    <col min="6" max="8" width="40.42578125" style="39" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" style="39" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="39"/>
+    <col min="1" max="1" width="36.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="126.7109375" style="36" customWidth="1"/>
+    <col min="3" max="5" width="22.42578125" style="36" customWidth="1"/>
+    <col min="6" max="8" width="40.42578125" style="36" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" style="36" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="36" t="s">
         <v>355</v>
       </c>
-      <c r="F2" s="41"/>
+      <c r="F2" s="38"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="36" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="36" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="36" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="36" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="36" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="36" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="36" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="36" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="36" t="s">
         <v>363</v>
       </c>
     </row>
@@ -2846,766 +2973,872 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:D17"/>
+    <sheetView tabSelected="1" topLeftCell="D31" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" customWidth="1"/>
-    <col min="2" max="2" width="42.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.85546875" customWidth="1"/>
-    <col min="4" max="4" width="44.5703125" customWidth="1"/>
+    <col min="1" max="1" width="37.28515625" style="41" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" style="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.85546875" style="41" customWidth="1"/>
+    <col min="4" max="4" width="44.5703125" style="41" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="42" t="s">
+        <v>409</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="41" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="44"/>
+      <c r="C9" s="41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="45"/>
+      <c r="B10" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>400</v>
+      </c>
+      <c r="F10" s="41" t="s">
+        <v>405</v>
+      </c>
+      <c r="G10" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="41" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="45"/>
+      <c r="B11" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>400</v>
+      </c>
+      <c r="F11" s="41" t="s">
+        <v>406</v>
+      </c>
+      <c r="G11" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="41" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="45"/>
+      <c r="B12" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>400</v>
+      </c>
+      <c r="F12" s="41" t="s">
+        <v>407</v>
+      </c>
+      <c r="G12" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="41" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="45"/>
+      <c r="C14" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="45"/>
+      <c r="C15" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="44"/>
+      <c r="C18" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="41" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="45"/>
+      <c r="B19" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="41" t="s">
+        <v>399</v>
+      </c>
+      <c r="F19" s="41" t="s">
+        <v>408</v>
+      </c>
+      <c r="G19" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="41" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="45"/>
+      <c r="C20" s="41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="45"/>
+      <c r="B21" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>399</v>
+      </c>
+      <c r="F21" s="41" t="s">
+        <v>408</v>
+      </c>
+      <c r="G21" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="41" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="45"/>
+      <c r="C22" s="41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="45"/>
+      <c r="B23" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="41" t="s">
+        <v>399</v>
+      </c>
+      <c r="F23" s="41" t="s">
+        <v>408</v>
+      </c>
+      <c r="G23" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" s="41" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="41" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="45"/>
+      <c r="B29" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" s="41" t="s">
         <v>390</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="13" t="s">
+      <c r="F29" s="41" t="s">
+        <v>413</v>
+      </c>
+      <c r="G29" s="41" t="s">
+        <v>412</v>
+      </c>
+      <c r="H29" s="41" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="45"/>
+      <c r="B30" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" s="41" t="s">
+        <v>391</v>
+      </c>
+      <c r="F30" s="41" t="s">
+        <v>414</v>
+      </c>
+      <c r="G30" s="41" t="s">
+        <v>419</v>
+      </c>
+      <c r="H30" s="41" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="45"/>
+      <c r="B31" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" s="41" t="s">
+        <v>392</v>
+      </c>
+      <c r="F31" s="41" t="s">
+        <v>415</v>
+      </c>
+      <c r="G31" s="41" t="s">
+        <v>418</v>
+      </c>
+      <c r="H31" s="41" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="45"/>
+      <c r="B32" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" s="41" t="s">
+        <v>393</v>
+      </c>
+      <c r="F32" s="41" t="s">
+        <v>416</v>
+      </c>
+      <c r="G32" s="41" t="s">
+        <v>417</v>
+      </c>
+      <c r="H32" s="41" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="41" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="45"/>
+      <c r="B35" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" s="41" t="s">
+        <v>396</v>
+      </c>
+      <c r="F35" s="41" t="s">
+        <v>414</v>
+      </c>
+      <c r="H35" s="41" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="45"/>
+      <c r="B36" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" s="41" t="s">
+        <v>395</v>
+      </c>
+      <c r="F36" s="41" t="s">
+        <v>413</v>
+      </c>
+      <c r="H36" s="41" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="45"/>
+      <c r="B37" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="E37" s="41" t="s">
+        <v>397</v>
+      </c>
+      <c r="F37" s="41" t="s">
+        <v>415</v>
+      </c>
+      <c r="H37" s="41" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="45"/>
+      <c r="B38" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="E38" s="41" t="s">
+        <v>398</v>
+      </c>
+      <c r="F38" s="41" t="s">
+        <v>416</v>
+      </c>
+      <c r="H38" s="41" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39" s="41" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="43" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" s="41" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="46"/>
+      <c r="B42" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="D10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="D42" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="E42" s="41" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="46"/>
+      <c r="B43" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="E43" s="41" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="46"/>
+      <c r="B44" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="E44" s="41" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="46"/>
+      <c r="B45" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="E45" s="41" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="B46" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46" s="41" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="46"/>
+      <c r="B47" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="C47" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="E47" s="41" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="46"/>
+      <c r="B48" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="C48" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="E48" s="41" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="45"/>
+      <c r="B49" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="C49" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="E49" s="41" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="45"/>
+      <c r="B50" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="C50" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="E50" s="41" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="B51" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="C51" s="41" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="B52" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="C52" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E52" s="41" t="s">
         <v>401</v>
       </c>
-      <c r="G10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="B53" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="C53" s="41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="B54" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="C54" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="D11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="E54" s="41" t="s">
         <v>401</v>
       </c>
-      <c r="G11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" t="s">
-        <v>401</v>
-      </c>
-      <c r="G12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" t="s">
-        <v>400</v>
-      </c>
-      <c r="G19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" t="s">
-        <v>400</v>
-      </c>
-      <c r="G21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" t="s">
-        <v>400</v>
-      </c>
-      <c r="G23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E29" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" t="s">
-        <v>90</v>
-      </c>
-      <c r="E30" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" t="s">
-        <v>52</v>
-      </c>
-      <c r="D31" t="s">
-        <v>99</v>
-      </c>
-      <c r="E31" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" t="s">
-        <v>101</v>
-      </c>
-      <c r="E32" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C34" t="s">
-        <v>94</v>
-      </c>
-      <c r="D34" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C35" t="s">
-        <v>52</v>
-      </c>
-      <c r="D35" t="s">
-        <v>59</v>
-      </c>
-      <c r="E35" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C36" t="s">
-        <v>52</v>
-      </c>
-      <c r="D36" t="s">
-        <v>97</v>
-      </c>
-      <c r="E36" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C37" t="s">
-        <v>52</v>
-      </c>
-      <c r="D37" t="s">
-        <v>99</v>
-      </c>
-      <c r="E37" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C38" t="s">
-        <v>52</v>
-      </c>
-      <c r="D38" t="s">
-        <v>101</v>
-      </c>
-      <c r="E38" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B39" t="s">
-        <v>103</v>
-      </c>
-      <c r="C39" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C41" t="s">
-        <v>108</v>
-      </c>
-      <c r="D41" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="9"/>
-      <c r="B42" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C42" t="s">
-        <v>52</v>
-      </c>
-      <c r="D42" t="s">
-        <v>111</v>
-      </c>
-      <c r="E42" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="9"/>
-      <c r="B43" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C43" t="s">
-        <v>52</v>
-      </c>
-      <c r="D43" t="s">
-        <v>90</v>
-      </c>
-      <c r="E43" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="9"/>
-      <c r="B44" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C44" t="s">
-        <v>52</v>
-      </c>
-      <c r="D44" t="s">
-        <v>99</v>
-      </c>
-      <c r="E44" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="9"/>
-      <c r="B45" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C45" t="s">
-        <v>52</v>
-      </c>
-      <c r="D45" t="s">
-        <v>101</v>
-      </c>
-      <c r="E45" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C46" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="9"/>
-      <c r="B47" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C47" t="s">
-        <v>52</v>
-      </c>
-      <c r="D47" t="s">
-        <v>90</v>
-      </c>
-      <c r="E47" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
-      <c r="B48" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C48" t="s">
-        <v>52</v>
-      </c>
-      <c r="D48" t="s">
-        <v>120</v>
-      </c>
-      <c r="E48" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C49" t="s">
-        <v>52</v>
-      </c>
-      <c r="D49" t="s">
-        <v>99</v>
-      </c>
-      <c r="E49" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C50" t="s">
-        <v>52</v>
-      </c>
-      <c r="D50" t="s">
-        <v>101</v>
-      </c>
-      <c r="E50" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B51" t="s">
-        <v>124</v>
-      </c>
-      <c r="C51" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="C52" t="s">
-        <v>52</v>
-      </c>
-      <c r="E52" t="s">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="C55" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="E55" s="41" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B53" t="s">
-        <v>129</v>
-      </c>
-      <c r="C53" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C54" t="s">
-        <v>52</v>
-      </c>
-      <c r="E54" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C55" t="s">
-        <v>133</v>
-      </c>
-      <c r="E55" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1" t="s">
+      <c r="B62" s="42"/>
+      <c r="C62" s="42" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="41" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="A64" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="41" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A65" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="41" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="A66" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="41" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="A67" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="41" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="A68" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="41" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="A69" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="41" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="A70" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="41" t="s">
         <v>140</v>
       </c>
     </row>
@@ -3624,7 +3857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
@@ -3635,7 +3868,7 @@
     <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.28515625" customWidth="1"/>
     <col min="4" max="4" width="54.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3651,7 +3884,7 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>141</v>
       </c>
       <c r="F1" s="1">
@@ -4049,7 +4282,7 @@
       <c r="A14" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="12"/>
+      <c r="E14" s="11"/>
       <c r="G14" s="8" t="s">
         <v>142</v>
       </c>
@@ -4082,7 +4315,7 @@
       <c r="B15" t="s">
         <v>151</v>
       </c>
-      <c r="E15" s="12"/>
+      <c r="E15" s="11"/>
       <c r="G15" s="8" t="s">
         <v>142</v>
       </c>
@@ -5312,7 +5545,7 @@
       <c r="A55" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E55" s="12"/>
+      <c r="E55" s="11"/>
       <c r="G55" s="8" t="s">
         <v>148</v>
       </c>
@@ -5342,7 +5575,7 @@
       <c r="A56" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E56" s="12"/>
+      <c r="E56" s="11"/>
       <c r="G56" s="8" t="s">
         <v>148</v>
       </c>
@@ -5372,7 +5605,7 @@
       <c r="A57" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="E57" s="12"/>
+      <c r="E57" s="11"/>
       <c r="G57" s="8" t="s">
         <v>148</v>
       </c>
@@ -5402,7 +5635,7 @@
       <c r="A58" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="E58" s="12"/>
+      <c r="E58" s="11"/>
       <c r="G58" s="8" t="s">
         <v>148</v>
       </c>
@@ -5432,7 +5665,7 @@
       <c r="A59" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="E59" s="12"/>
+      <c r="E59" s="11"/>
       <c r="G59" s="8" t="s">
         <v>142</v>
       </c>
@@ -5491,7 +5724,7 @@
       <c r="A61" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="E61" s="12"/>
+      <c r="E61" s="11"/>
       <c r="G61" t="s">
         <v>148</v>
       </c>
@@ -5521,7 +5754,7 @@
       <c r="A62" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E62" s="12"/>
+      <c r="E62" s="11"/>
       <c r="G62" s="8" t="s">
         <v>148</v>
       </c>
@@ -5551,7 +5784,7 @@
       <c r="A63" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E63" s="12"/>
+      <c r="E63" s="11"/>
       <c r="G63" s="8" t="s">
         <v>148</v>
       </c>
@@ -5581,7 +5814,7 @@
       <c r="A64" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="E64" s="12"/>
+      <c r="E64" s="11"/>
       <c r="G64" s="8" t="s">
         <v>148</v>
       </c>
@@ -5611,7 +5844,7 @@
       <c r="A65" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="E65" s="12"/>
+      <c r="E65" s="11"/>
       <c r="G65" s="8" t="s">
         <v>148</v>
       </c>
@@ -5641,7 +5874,7 @@
       <c r="A66" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="E66" s="12"/>
+      <c r="E66" s="11"/>
       <c r="G66" t="s">
         <v>148</v>
       </c>
@@ -5671,7 +5904,7 @@
       <c r="A67" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="E67" s="12"/>
+      <c r="E67" s="11"/>
       <c r="G67" s="8" t="s">
         <v>148</v>
       </c>
@@ -5701,7 +5934,7 @@
       <c r="A68" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="E68" s="12"/>
+      <c r="E68" s="11"/>
       <c r="G68" s="8" t="s">
         <v>148</v>
       </c>
@@ -5731,7 +5964,7 @@
       <c r="A69" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="E69" s="12"/>
+      <c r="E69" s="11"/>
       <c r="G69" s="8" t="s">
         <v>148</v>
       </c>
@@ -5761,7 +5994,7 @@
       <c r="A70" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="E70" s="12"/>
+      <c r="E70" s="11"/>
       <c r="G70" s="8" t="s">
         <v>148</v>
       </c>
@@ -5794,7 +6027,7 @@
       <c r="D71" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="E71" s="12"/>
+      <c r="E71" s="11"/>
       <c r="G71" s="8" t="s">
         <v>142</v>
       </c>
@@ -5824,7 +6057,7 @@
       <c r="A72" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="E72" s="12"/>
+      <c r="E72" s="11"/>
       <c r="G72" s="8" t="s">
         <v>142</v>
       </c>
@@ -5854,7 +6087,7 @@
       <c r="A73" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E73" s="12"/>
+      <c r="E73" s="11"/>
       <c r="G73" s="8" t="s">
         <v>142</v>
       </c>
@@ -5884,7 +6117,7 @@
       <c r="A74" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="E74" s="12"/>
+      <c r="E74" s="11"/>
       <c r="G74" s="8" t="s">
         <v>142</v>
       </c>
@@ -6055,7 +6288,7 @@
       </c>
     </row>
     <row r="84" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E84" s="11"/>
+      <c r="E84" s="10"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
@@ -6093,7 +6326,7 @@
     <col min="1" max="1" width="37.28515625" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="11" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -6110,7 +6343,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="1"/>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>141</v>
       </c>
       <c r="G1" s="1">
@@ -6854,68 +7087,68 @@
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F50" s="12"/>
+      <c r="F50" s="11"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F51" s="12"/>
+      <c r="F51" s="11"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F52" s="12"/>
+      <c r="F52" s="11"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F53" s="12"/>
+      <c r="F53" s="11"/>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F54" s="12"/>
+      <c r="F54" s="11"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F55" s="12"/>
+      <c r="F55" s="11"/>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F56" s="12"/>
+      <c r="F56" s="11"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F57" s="12"/>
+      <c r="F57" s="11"/>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F58" s="12"/>
+      <c r="F58" s="11"/>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F59" s="12"/>
+      <c r="F59" s="11"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
-      <c r="F60" s="12"/>
+      <c r="F60" s="11"/>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F61" s="12"/>
+      <c r="F61" s="11"/>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F62" s="12"/>
+      <c r="F62" s="11"/>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F63" s="12"/>
+      <c r="F63" s="11"/>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F64" s="12"/>
+      <c r="F64" s="11"/>
     </row>
     <row r="65" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F65" s="12"/>
+      <c r="F65" s="11"/>
     </row>
     <row r="66" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F66" s="12"/>
+      <c r="F66" s="11"/>
     </row>
     <row r="67" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F67" s="12"/>
+      <c r="F67" s="11"/>
     </row>
     <row r="68" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F68" s="12"/>
+      <c r="F68" s="11"/>
     </row>
     <row r="69" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F69" s="12"/>
+      <c r="F69" s="11"/>
     </row>
     <row r="70" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F70" s="12"/>
+      <c r="F70" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6939,7 +7172,7 @@
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55.85546875" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="11" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -6956,7 +7189,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="1"/>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>141</v>
       </c>
       <c r="G1" s="1">
@@ -7425,67 +7658,67 @@
       </c>
     </row>
     <row r="52" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F52" s="12"/>
+      <c r="F52" s="11"/>
     </row>
     <row r="53" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F53" s="12"/>
+      <c r="F53" s="11"/>
     </row>
     <row r="54" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F54" s="12"/>
+      <c r="F54" s="11"/>
     </row>
     <row r="55" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F55" s="12"/>
+      <c r="F55" s="11"/>
     </row>
     <row r="56" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F56" s="12"/>
+      <c r="F56" s="11"/>
     </row>
     <row r="57" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F57" s="12"/>
+      <c r="F57" s="11"/>
     </row>
     <row r="58" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F58" s="12"/>
+      <c r="F58" s="11"/>
     </row>
     <row r="59" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F59" s="12"/>
+      <c r="F59" s="11"/>
     </row>
     <row r="60" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F60" s="12"/>
+      <c r="F60" s="11"/>
     </row>
     <row r="61" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F61" s="12"/>
+      <c r="F61" s="11"/>
     </row>
     <row r="62" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F62" s="12"/>
+      <c r="F62" s="11"/>
     </row>
     <row r="63" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F63" s="12"/>
+      <c r="F63" s="11"/>
     </row>
     <row r="64" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F64" s="12"/>
+      <c r="F64" s="11"/>
     </row>
     <row r="65" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F65" s="12"/>
+      <c r="F65" s="11"/>
     </row>
     <row r="66" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F66" s="12"/>
+      <c r="F66" s="11"/>
     </row>
     <row r="67" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F67" s="12"/>
+      <c r="F67" s="11"/>
     </row>
     <row r="68" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F68" s="12"/>
+      <c r="F68" s="11"/>
     </row>
     <row r="69" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F69" s="12"/>
+      <c r="F69" s="11"/>
     </row>
     <row r="70" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F70" s="12"/>
+      <c r="F70" s="11"/>
     </row>
     <row r="71" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F71" s="12"/>
+      <c r="F71" s="11"/>
     </row>
     <row r="72" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F72" s="12"/>
+      <c r="F72" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7559,10 +7792,10 @@
       <c r="J1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="N1" s="15"/>
+      <c r="N1" s="12"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
@@ -7571,28 +7804,28 @@
       <c r="B2">
         <v>633</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="D2" s="18" t="s">
+      <c r="C2" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="F2" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="G2" s="18" t="s">
+      <c r="F2" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="15" t="s">
         <v>242</v>
       </c>
       <c r="M2" t="s">
@@ -7621,7 +7854,7 @@
       <c r="G3" t="s">
         <v>149</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="14" t="s">
         <v>245</v>
       </c>
     </row>
@@ -7632,27 +7865,27 @@
       <c r="B4">
         <v>2205</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="D4" s="18" t="s">
+      <c r="C4" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="F4" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="G4" s="17" t="s">
+      <c r="F4" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M4" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -7661,28 +7894,28 @@
       <c r="B5">
         <v>1381</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="D5" s="18" t="s">
+      <c r="C5" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="32" t="s">
         <v>249</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="13" t="s">
         <v>250</v>
       </c>
       <c r="K5" t="s">
         <v>352</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="M5" s="13" t="s">
         <v>251</v>
       </c>
     </row>
@@ -7693,31 +7926,31 @@
       <c r="B6">
         <v>1065</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="D6" s="18" t="s">
+      <c r="C6" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="F6" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="G6" s="18" t="s">
+      <c r="F6" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G6" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="J6" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="M6" s="18" t="s">
+      <c r="M6" s="15" t="s">
         <v>256</v>
       </c>
     </row>
@@ -7728,28 +7961,28 @@
       <c r="B7">
         <v>1397</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="D7" s="18" t="s">
+      <c r="C7" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="32" t="s">
         <v>249</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="13" t="s">
         <v>259</v>
       </c>
       <c r="K7" t="s">
         <v>354</v>
       </c>
-      <c r="M7" s="19" t="s">
+      <c r="M7" s="16" t="s">
         <v>260</v>
       </c>
     </row>
@@ -7772,7 +8005,7 @@
       <c r="F8" t="s">
         <v>149</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="14" t="s">
         <v>262</v>
       </c>
       <c r="M8" t="s">
@@ -7786,28 +8019,28 @@
       <c r="B9">
         <v>900</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="D9" s="18" t="s">
+      <c r="C9" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I9" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="J9" s="15" t="s">
         <v>255</v>
       </c>
     </row>
@@ -7833,10 +8066,10 @@
       <c r="G10" t="s">
         <v>149</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="14" t="s">
         <v>267</v>
       </c>
     </row>
@@ -7847,28 +8080,28 @@
       <c r="B11">
         <v>1199</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="D11" s="18" t="s">
+      <c r="C11" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="I11" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="J11" s="18" t="s">
+      <c r="J11" s="15" t="s">
         <v>255</v>
       </c>
     </row>
@@ -7891,7 +8124,7 @@
       <c r="F12" t="s">
         <v>149</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="14" t="s">
         <v>269</v>
       </c>
     </row>
@@ -7902,22 +8135,22 @@
       <c r="B13">
         <v>1909</v>
       </c>
-      <c r="C13" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="D13" s="18" t="s">
+      <c r="C13" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="G13" s="35" t="s">
+      <c r="G13" s="32" t="s">
         <v>249</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="13" t="s">
         <v>259</v>
       </c>
     </row>
@@ -7928,28 +8161,28 @@
       <c r="B14">
         <v>1469</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="D14" s="18" t="s">
+      <c r="C14" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="15" t="s">
         <v>238</v>
       </c>
       <c r="F14" t="s">
         <v>149</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="I14" s="18" t="s">
+      <c r="I14" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="J14" s="18" t="s">
+      <c r="J14" s="15" t="s">
         <v>349</v>
       </c>
     </row>
@@ -7972,10 +8205,10 @@
       <c r="F15" t="s">
         <v>149</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="J15" s="17" t="s">
+      <c r="J15" s="14" t="s">
         <v>350</v>
       </c>
     </row>
@@ -7986,22 +8219,22 @@
       <c r="B16">
         <v>1414</v>
       </c>
-      <c r="C16" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="D16" s="18" t="s">
+      <c r="C16" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="G16" s="35" t="s">
+      <c r="G16" s="32" t="s">
         <v>249</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="13" t="s">
         <v>259</v>
       </c>
     </row>
@@ -8012,22 +8245,22 @@
       <c r="B17">
         <v>1444</v>
       </c>
-      <c r="C17" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="D17" s="18" t="s">
+      <c r="C17" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="15" t="s">
         <v>238</v>
       </c>
       <c r="F17" t="s">
         <v>248</v>
       </c>
-      <c r="G17" s="35" t="s">
+      <c r="G17" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="H17" s="13" t="s">
         <v>271</v>
       </c>
     </row>
@@ -8038,22 +8271,22 @@
       <c r="B18">
         <v>1788</v>
       </c>
-      <c r="C18" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="D18" s="18" t="s">
+      <c r="C18" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="15" t="s">
         <v>258</v>
       </c>
       <c r="F18" t="s">
         <v>149</v>
       </c>
-      <c r="G18" s="35" t="s">
+      <c r="G18" s="32" t="s">
         <v>270</v>
       </c>
-      <c r="H18" s="16" t="s">
+      <c r="H18" s="13" t="s">
         <v>271</v>
       </c>
     </row>
@@ -8064,22 +8297,22 @@
       <c r="B19">
         <v>1089</v>
       </c>
-      <c r="C19" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="D19" s="18" t="s">
+      <c r="C19" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="15" t="s">
         <v>238</v>
       </c>
       <c r="F19" t="s">
         <v>149</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="H19" s="38"/>
+      <c r="H19" s="35"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -8088,28 +8321,28 @@
       <c r="B20">
         <v>1721</v>
       </c>
-      <c r="C20" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="D20" s="18" t="s">
+      <c r="C20" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D20" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="15" t="s">
         <v>258</v>
       </c>
       <c r="F20" t="s">
         <v>149</v>
       </c>
-      <c r="G20" s="35" t="s">
+      <c r="G20" s="32" t="s">
         <v>252</v>
       </c>
-      <c r="H20" s="18" t="s">
+      <c r="H20" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="I20" s="18" t="s">
+      <c r="I20" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="J20" s="18" t="s">
+      <c r="J20" s="15" t="s">
         <v>255</v>
       </c>
     </row>
@@ -8117,7 +8350,7 @@
       <c r="A21" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="G21" s="36" t="s">
+      <c r="G21" s="33" t="s">
         <v>274</v>
       </c>
     </row>
@@ -8125,7 +8358,7 @@
       <c r="A22" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="G22" s="37" t="s">
+      <c r="G22" s="34" t="s">
         <v>275</v>
       </c>
     </row>
@@ -8136,19 +8369,19 @@
       <c r="B23">
         <v>1496</v>
       </c>
-      <c r="C23" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="D23" s="18" t="s">
+      <c r="C23" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D23" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="15" t="s">
         <v>238</v>
       </c>
       <c r="F23" t="s">
         <v>149</v>
       </c>
-      <c r="G23" s="19" t="s">
+      <c r="G23" s="16" t="s">
         <v>276</v>
       </c>
     </row>
@@ -8159,19 +8392,19 @@
       <c r="B24">
         <v>1515</v>
       </c>
-      <c r="C24" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="D24" s="18" t="s">
+      <c r="C24" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D24" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="15" t="s">
         <v>238</v>
       </c>
       <c r="F24" t="s">
         <v>149</v>
       </c>
-      <c r="G24" s="19" t="s">
+      <c r="G24" s="16" t="s">
         <v>276</v>
       </c>
     </row>
@@ -8182,19 +8415,19 @@
       <c r="B25">
         <v>1035</v>
       </c>
-      <c r="C25" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="D25" s="18" t="s">
+      <c r="C25" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="15" t="s">
         <v>238</v>
       </c>
       <c r="F25" t="s">
         <v>149</v>
       </c>
-      <c r="G25" s="19" t="s">
+      <c r="G25" s="16" t="s">
         <v>276</v>
       </c>
     </row>
@@ -8205,19 +8438,19 @@
       <c r="B26">
         <v>659</v>
       </c>
-      <c r="C26" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="D26" s="18" t="s">
+      <c r="C26" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="15" t="s">
         <v>238</v>
       </c>
       <c r="F26" t="s">
         <v>149</v>
       </c>
-      <c r="G26" s="19" t="s">
+      <c r="G26" s="16" t="s">
         <v>276</v>
       </c>
     </row>
@@ -8228,19 +8461,19 @@
       <c r="B27">
         <v>1004</v>
       </c>
-      <c r="C27" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="D27" s="18" t="s">
+      <c r="C27" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="15" t="s">
         <v>238</v>
       </c>
       <c r="F27" t="s">
         <v>149</v>
       </c>
-      <c r="G27" s="19" t="s">
+      <c r="G27" s="16" t="s">
         <v>276</v>
       </c>
     </row>
@@ -8251,19 +8484,19 @@
       <c r="B28">
         <v>1404</v>
       </c>
-      <c r="C28" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="D28" s="18" t="s">
+      <c r="C28" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="15" t="s">
         <v>238</v>
       </c>
       <c r="F28" t="s">
         <v>149</v>
       </c>
-      <c r="G28" s="19" t="s">
+      <c r="G28" s="16" t="s">
         <v>276</v>
       </c>
     </row>
@@ -8274,13 +8507,13 @@
       <c r="B29">
         <v>519</v>
       </c>
-      <c r="C29" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="D29" s="18" t="s">
+      <c r="C29" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D29" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="15" t="s">
         <v>238</v>
       </c>
       <c r="F29" t="s">
@@ -8309,1104 +8542,1104 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="18" t="s">
         <v>340</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="18" t="s">
         <v>341</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="18" t="s">
         <v>342</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="18" t="s">
         <v>343</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="17" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="19" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="19" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="19" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="19" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="19" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="19" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="19" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="19" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="24" t="s">
+      <c r="A12" s="19"/>
+      <c r="B12" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="19" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="B13" s="24" t="s">
+      <c r="A13" s="19"/>
+      <c r="B13" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="19" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="26" t="s">
+      <c r="A14" s="19"/>
+      <c r="B14" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="23" t="s">
+      <c r="A15" s="19"/>
+      <c r="B15" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="19" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="24" t="s">
+      <c r="A16" s="19"/>
+      <c r="B16" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="F16" s="30" t="s">
+      <c r="F16" s="27" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="24" t="s">
+      <c r="A17" s="19"/>
+      <c r="B17" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="19" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="24" t="s">
+      <c r="A18" s="19"/>
+      <c r="B18" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="F18" s="30" t="s">
+      <c r="F18" s="27" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="23" t="s">
+      <c r="A19" s="19"/>
+      <c r="B19" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="E19" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="F19" s="30" t="s">
+      <c r="F19" s="27" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="23" t="s">
+      <c r="A20" s="19"/>
+      <c r="B20" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="F20" s="30" t="s">
+      <c r="F20" s="27" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="23" t="s">
+      <c r="A21" s="19"/>
+      <c r="B21" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="F21" s="30" t="s">
+      <c r="F21" s="27" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="23" t="s">
+      <c r="A22" s="19"/>
+      <c r="B22" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E22" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="F22" s="30" t="s">
+      <c r="F22" s="27" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
-      <c r="B23" s="23" t="s">
+      <c r="A23" s="19"/>
+      <c r="B23" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="E23" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="F23" s="30" t="s">
+      <c r="F23" s="27" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
-      <c r="B24" s="23" t="s">
+      <c r="A24" s="19"/>
+      <c r="B24" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="24" t="s">
+      <c r="E24" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="F24" s="30" t="s">
+      <c r="F24" s="27" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
-      <c r="B25" s="23" t="s">
+      <c r="A25" s="19"/>
+      <c r="B25" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="28" t="s">
+      <c r="D25" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="E25" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="F25" s="30" t="s">
+      <c r="F25" s="27" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
-      <c r="B26" s="23" t="s">
+      <c r="A26" s="19"/>
+      <c r="B26" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="D26" s="29" t="s">
+      <c r="D26" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="E26" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="F26" s="22"/>
+      <c r="F26" s="19"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
-      <c r="B27" s="23" t="s">
+      <c r="A27" s="19"/>
+      <c r="B27" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="E27" s="24" t="s">
+      <c r="E27" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="F27" s="22"/>
+      <c r="F27" s="19"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
-      <c r="B28" s="23" t="s">
+      <c r="A28" s="19"/>
+      <c r="B28" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="E28" s="24" t="s">
+      <c r="E28" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="F28" s="22"/>
+      <c r="F28" s="19"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
-      <c r="B29" s="23" t="s">
+      <c r="A29" s="19"/>
+      <c r="B29" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="31" t="s">
+      <c r="C29" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D29" s="29" t="s">
+      <c r="D29" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="E29" s="24" t="s">
+      <c r="E29" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="F29" s="22"/>
+      <c r="F29" s="19"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="27" t="s">
+      <c r="A30" s="19"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="D30" s="28" t="s">
+      <c r="D30" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="E30" s="24" t="s">
+      <c r="E30" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="F30" s="24"/>
+      <c r="F30" s="21"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="31" t="s">
+      <c r="A31" s="19"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="E31" s="24" t="s">
+      <c r="E31" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="F31" s="24"/>
+      <c r="F31" s="21"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="31" t="s">
+      <c r="A32" s="19"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="D32" s="24" t="s">
+      <c r="D32" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="E32" s="24" t="s">
+      <c r="E32" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="F32" s="24"/>
+      <c r="F32" s="21"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24" t="s">
+      <c r="A33" s="19"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="E33" s="24" t="s">
+      <c r="E33" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="F33" s="24"/>
+      <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="22" t="s">
+      <c r="A34" s="19"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="D34" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E34" s="24" t="s">
+      <c r="E34" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="F34" s="24"/>
+      <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="27" t="s">
+      <c r="A35" s="19"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="D35" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="E35" s="24" t="s">
+      <c r="E35" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="F35" s="24"/>
+      <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="27" t="s">
+      <c r="A36" s="19"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="D36" s="28" t="s">
+      <c r="D36" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="27" t="s">
+      <c r="A37" s="19"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="D37" s="24" t="s">
+      <c r="D37" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="22"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="27" t="s">
+      <c r="A38" s="19"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="D38" s="28" t="s">
+      <c r="D38" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="22" t="s">
+      <c r="A39" s="19"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="D39" s="28" t="s">
+      <c r="D39" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="22"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="32" t="s">
+      <c r="A40" s="19"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="D40" s="28" t="s">
+      <c r="D40" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="33" t="s">
+      <c r="A41" s="19"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="D41" s="28" t="s">
+      <c r="D41" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="22"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="31" t="s">
+      <c r="A42" s="19"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="D42" s="29" t="s">
+      <c r="D42" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="22"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="31" t="s">
+      <c r="A43" s="19"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="D43" s="29" t="s">
+      <c r="D43" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="22"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="31" t="s">
+      <c r="A44" s="19"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="D44" s="23" t="s">
+      <c r="D44" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="22"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="31" t="s">
+      <c r="A45" s="19"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="D45" s="23" t="s">
+      <c r="D45" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="22"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="34" t="s">
+      <c r="A46" s="19"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="D46" s="29" t="s">
+      <c r="D46" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="22"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="27" t="s">
+      <c r="A47" s="19"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="D47" s="29" t="s">
+      <c r="D47" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="22"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="31" t="s">
+      <c r="A48" s="19"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="D48" s="23" t="s">
+      <c r="D48" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="22"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="31" t="s">
+      <c r="A49" s="19"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="D49" s="23" t="s">
+      <c r="D49" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="22"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="31" t="s">
+      <c r="A50" s="19"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="D50" s="23" t="s">
+      <c r="D50" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="22"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="22" t="s">
+      <c r="A51" s="19"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="D51" s="23" t="s">
+      <c r="D51" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="22"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="31" t="s">
+      <c r="A52" s="19"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="D52" s="23" t="s">
+      <c r="D52" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="22"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="22" t="s">
+      <c r="A53" s="19"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="D53" s="23" t="s">
+      <c r="D53" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="22"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="31" t="s">
+      <c r="A54" s="19"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="D54" s="23" t="s">
+      <c r="D54" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="22"/>
-      <c r="B55" s="24"/>
-      <c r="C55" s="27" t="s">
+      <c r="A55" s="19"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="D55" s="24" t="s">
+      <c r="D55" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="22"/>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="28" t="s">
+      <c r="A56" s="19"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="22"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="28" t="s">
+      <c r="A57" s="19"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="22"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="28" t="s">
+      <c r="A58" s="19"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="22"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="28" t="s">
+      <c r="A59" s="19"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="E59" s="24"/>
-      <c r="F59" s="24"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="22"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="28" t="s">
+      <c r="A60" s="19"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="22"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="28" t="s">
+      <c r="A61" s="19"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="E61" s="24"/>
-      <c r="F61" s="24"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="22"/>
-      <c r="B62" s="24"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="28" t="s">
+      <c r="A62" s="19"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="22"/>
-      <c r="B63" s="24"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="28" t="s">
+      <c r="A63" s="19"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="E63" s="24"/>
-      <c r="F63" s="24"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="22"/>
-      <c r="B64" s="24"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="28" t="s">
+      <c r="A64" s="19"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="E64" s="24"/>
-      <c r="F64" s="24"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="22"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="28" t="s">
+      <c r="A65" s="19"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="E65" s="24"/>
-      <c r="F65" s="24"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="22"/>
-      <c r="B66" s="24"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="28" t="s">
+      <c r="A66" s="19"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="E66" s="24"/>
-      <c r="F66" s="24"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="22"/>
-      <c r="B67" s="24"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="28" t="s">
+      <c r="A67" s="19"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="E67" s="24"/>
-      <c r="F67" s="24"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="22"/>
-      <c r="B68" s="24"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="28" t="s">
+      <c r="A68" s="19"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="E68" s="24"/>
-      <c r="F68" s="24"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="22"/>
-      <c r="B69" s="24"/>
-      <c r="C69" s="24"/>
-      <c r="D69" s="28" t="s">
+      <c r="A69" s="19"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="E69" s="24"/>
-      <c r="F69" s="24"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="22"/>
-      <c r="B70" s="24"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="28" t="s">
+      <c r="A70" s="19"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="E70" s="24"/>
-      <c r="F70" s="24"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="22"/>
-      <c r="B71" s="24"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="28" t="s">
+      <c r="A71" s="19"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="E71" s="24"/>
-      <c r="F71" s="24"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="22"/>
-      <c r="B72" s="24"/>
-      <c r="C72" s="24"/>
-      <c r="D72" s="28" t="s">
+      <c r="A72" s="19"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="E72" s="24"/>
-      <c r="F72" s="24"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="22"/>
-      <c r="B73" s="24"/>
-      <c r="C73" s="24"/>
-      <c r="D73" s="28" t="s">
+      <c r="A73" s="19"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="E73" s="24"/>
-      <c r="F73" s="24"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="22"/>
-      <c r="B74" s="24"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="28" t="s">
+      <c r="A74" s="19"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="E74" s="24"/>
-      <c r="F74" s="24"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="22"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="24"/>
-      <c r="D75" s="28" t="s">
+      <c r="A75" s="19"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="E75" s="24"/>
-      <c r="F75" s="24"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="22"/>
-      <c r="B76" s="24"/>
-      <c r="C76" s="24"/>
-      <c r="D76" s="24" t="s">
+      <c r="A76" s="19"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="E76" s="24"/>
-      <c r="F76" s="24"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="22"/>
-      <c r="B77" s="24"/>
-      <c r="C77" s="24"/>
-      <c r="D77" s="28" t="s">
+      <c r="A77" s="19"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="E77" s="24"/>
-      <c r="F77" s="24"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="22"/>
-      <c r="B78" s="24"/>
-      <c r="C78" s="24"/>
-      <c r="D78" s="24" t="s">
+      <c r="A78" s="19"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="E78" s="24"/>
-      <c r="F78" s="24"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="21"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="22"/>
-      <c r="B79" s="24"/>
-      <c r="C79" s="24"/>
-      <c r="D79" s="28" t="s">
+      <c r="A79" s="19"/>
+      <c r="B79" s="21"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="E79" s="24"/>
-      <c r="F79" s="24"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data_mapping_template_EPICC.xlsx
+++ b/Data_mapping_template_EPICC.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\littleh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\littleh\Dropbox (Smithsonian)\EPICC Transcription\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17100" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="11" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1960" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2005" uniqueCount="446">
   <si>
     <t>Column Name</t>
   </si>
@@ -1357,12 +1357,6 @@
     <t>OpenRefine Command</t>
   </si>
   <si>
-    <t>Split column based on ","</t>
-  </si>
-  <si>
-    <t>Split geography based on ","</t>
-  </si>
-  <si>
     <t xml:space="preserve">  {
     "op": "core/column-addition",
     "description": "Create column NteType_tab(+ group='ledger') at index 25 based on column NteText0(+ group='ledger') using expression jython:if value is not None: \n    return \"Comment\"\nelse:\n    return None",
@@ -1445,6 +1439,315 @@
     "expression": "jython:if value is not None:\n    return \"Yes\"\nelse:\n    return None",
     "onError": "set-to-blank"
   },</t>
+  </si>
+  <si>
+    <t>Edit column -&gt; Split into several columns -&gt; by separator ","</t>
+  </si>
+  <si>
+    <t>[Geography] Edit column -&gt; Split into several columns -&gt; by separator ","</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  {
+    "op": "core/text-transform",
+    "description": "Text transform on cells in column NotNmnhText0(+ group='additional') using expression jython:if value is not None:  \n    return \"Additional label information: \" + value\nelse:  \n    return None",
+    "engineConfig": {
+      "mode": "row-based",
+      "facets": []
+    },
+    "columnName": "NotNmnhText0(+ group='additional')",
+    "expression": "jython:if value is not None:  \n    return \"Additional label information: \" + value\nelse:  \n    return None",
+    "onError": "keep-original",
+    "repeat": false,
+    "repeatCount": 10
+  },</t>
+  </si>
+  <si>
+    <t>if value is not None: 
+     return "Additional label information:  " + value
+else:
+    return None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  {
+    "op": "core/text-transform",
+    "description": "Text transform on cells in column NotNmnhText0(+group='litho') using expression jython:if value is not None:\n    return \"Verbatim Lithostratigraphy: \" + value\nelse:\n    return None",
+    "engineConfig": {
+      "mode": "row-based",
+      "facets": []
+    },
+    "columnName": "NotNmnhText0(+group='litho')",
+    "expression": "jython:if value is not None:\n    return \"Verbatim Lithostratigraphy: \" + value\nelse:\n    return None",
+    "onError": "keep-original",
+    "repeat": false,
+    "repeatCount": 10
+  },</t>
+  </si>
+  <si>
+    <t>if value is not None: 
+     return "Verbatim Lithostratigraphy:  " + value
+else:
+    return None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  {
+    "op": "core/column-addition",
+    "description": "Create column NotNmnhWeb_tab(+ group='additional') at index 32 based on column NotNmnhText0(+ group='additional') using expression jython:if value is not None:\n    return \"Yes\"\nelse:\n    return None",
+    "engineConfig": {
+      "mode": "row-based",
+      "facets": []
+    },
+    "newColumnName": "NotNmnhWeb_tab(+ group='additional')",
+    "columnInsertIndex": 32,
+    "baseColumnName": "NotNmnhText0(+ group='additional')",
+    "expression": "jython:if value is not None:\n    return \"Yes\"\nelse:\n    return None",
+    "onError": "set-to-blank"
+  },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  {
+    "op": "core/column-addition",
+    "description": "Create column NotNmnhType_tab(+ group='additional') at index 32 based on column NotNmnhText0(+ group='additional') using expression jython:if value is not None:\n    return \"Specimen Remarks\"\nelse:\n    return None",
+    "engineConfig": {
+      "mode": "row-based",
+      "facets": []
+    },
+    "newColumnName": "NotNmnhType_tab(+ group='additional')",
+    "columnInsertIndex": 32,
+    "baseColumnName": "NotNmnhText0(+ group='additional')",
+    "expression": "jython:if value is not None:\n    return \"Specimen Remarks\"\nelse:\n    return None",
+    "onError": "set-to-blank"
+  },</t>
+  </si>
+  <si>
+    <t>if value is not None:
+     return "Specimen Remarks"
+else:
+    return None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  {
+    "op": "core/column-addition",
+    "description": "Create column NotNmnhDate0(+ group='additional') at index 32 based on column NotNmnhText0(+ group='additional') using expression jython:if value is not None:\n    return \"08-Dec-2017\"\nelse:\n    return None",
+    "engineConfig": {
+      "mode": "row-based",
+      "facets": []
+    },
+    "newColumnName": "NotNmnhDate0(+ group='additional')",
+    "columnInsertIndex": 32,
+    "baseColumnName": "NotNmnhText0(+ group='additional')",
+    "expression": "jython:if value is not None:\n    return \"08-Dec-2017\"\nelse:\n    return None",
+    "onError": "set-to-blank"
+  },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  {
+    "op": "core/column-addition",
+    "description": "Create column NotNmnhAttributedToRef_nesttab(+ group='additional':1).irn at index 32 based on column NotNmnhText0(+ group='additional') using expression jython:if value is not None:\n   return \"10214970\"\nelse:\n   return None",
+    "engineConfig": {
+      "mode": "row-based",
+      "facets": []
+    },
+    "newColumnName": "NotNmnhAttributedToRef_nesttab(+ group='additional':1).irn",
+    "columnInsertIndex": 32,
+    "baseColumnName": "NotNmnhText0(+ group='additional')",
+    "expression": "jython:if value is not None:\n   return \"10214970\"\nelse:\n   return None",
+    "onError": "set-to-blank"
+  },</t>
+  </si>
+  <si>
+    <t>if value is not None:
+     return "Stratigraphic Remarks"
+else:
+    return None</t>
+  </si>
+  <si>
+    <t>if value is not None:
+     return "Collection Events Notes"
+else:
+    return None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  {
+    "op": "core/column-addition",
+    "description": "Create column NotNmnhType_tab(+group='litho') at index 31 based on column NotNmnhText0(+group='litho') using expression jython:if value is not None:\n    return \"Stratigraphic Remarks\"\nelse:\n    return None",
+    "engineConfig": {
+      "mode": "row-based",
+      "facets": []
+    },
+    "newColumnName": "NotNmnhType_tab(+group='litho')",
+    "columnInsertIndex": 31,
+    "baseColumnName": "NotNmnhText0(+group='litho')",
+    "expression": "jython:if value is not None:\n    return \"Stratigraphic Remarks\"\nelse:\n    return None",
+    "onError": "set-to-blank"
+  },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  {
+    "op": "core/column-addition",
+    "description": "Create column NotNmnhWeb_tab(+group='litho') at index 31 based on column NotNmnhText0(+group='litho') using expression jython:if value is not None:\n    return \"Yes\"\nelse:\n    return None",
+    "engineConfig": {
+      "mode": "row-based",
+      "facets": []
+    },
+    "newColumnName": "NotNmnhWeb_tab(+group='litho')",
+    "columnInsertIndex": 31,
+    "baseColumnName": "NotNmnhText0(+group='litho')",
+    "expression": "jython:if value is not None:\n    return \"Yes\"\nelse:\n    return None",
+    "onError": "set-to-blank"
+  },</t>
+  </si>
+  <si>
+    <t>{
+    "op": "core/column-addition",
+    "description": "Create column NotNmnhDate0(+group='litho') at index 31 based on column NotNmnhText0(+group='litho') using expression jython:if value is not None:\n    return \"08-Dec-2017\"\nelse:\n    return None",
+    "engineConfig": {
+      "mode": "row-based",
+      "facets": []
+    },
+    "newColumnName": "NotNmnhDate0(+group='litho')",
+    "columnInsertIndex": 31,
+    "baseColumnName": "NotNmnhText0(+group='litho')",
+    "expression": "jython:if value is not None:\n    return \"08-Dec-2017\"\nelse:\n    return None",
+    "onError": "set-to-blank"
+  },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  {
+    "op": "core/column-addition",
+    "description": "Create column NotNmnhAttributedToRef_nesttab(+ group='litho':1).irn at index 31 based on column NotNmnhText0(+group='litho') using expression jython:if value is not None:\n    return \"10214970\"\nelse:\n    return None",
+    "engineConfig": {
+      "mode": "row-based",
+      "facets": []
+    },
+    "newColumnName": "NotNmnhAttributedToRef_nesttab(+ group='litho':1).irn",
+    "columnInsertIndex": 31,
+    "baseColumnName": "NotNmnhText0(+group='litho')",
+    "expression": "jython:if value is not None:\n    return \"10214970\"\nelse:\n    return None",
+    "onError": "set-to-blank"
+  },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  {
+    "op": "core/text-transform",
+    "description": "Text transform on cells in column NteText0(+ group='notebook') using expression grel:if(isNull(cells[\"NteText0(+ group='notebook')\"]), null ,\"Collector Notes: Notebook \" + cells[\"NteText0(+ group='notebook')\"].value) + if(isNull(cells[\"Pages\"]), \" \",\" Page \" + cells[\"Pages\"].value)",
+    "engineConfig": {
+      "mode": "row-based",
+      "facets": []
+    },
+    "columnName": "NteText0(+ group='notebook')",
+    "expression": "grel:if(isNull(cells[\"NteText0(+ group='notebook')\"]), null ,\"Collector Notes: Notebook \" + cells[\"NteText0(+ group='notebook')\"].value) + if(isNull(cells[\"Pages\"]), \" \",\" Page \" + cells[\"Pages\"].value)",
+    "onError": "keep-original",
+    "repeat": false,
+    "repeatCount": 10
+  },</t>
+  </si>
+  <si>
+    <t>GREL</t>
+  </si>
+  <si>
+    <t>if(isNull(cells["NteText0(+ group='notebook')"]), null ,"Collector Notes: Notebook " + cells["NteText0(+ group='notebook')"].value) + if(isNull(cells["Pages"]), " "," Page " + cells["Pages"].value)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  {
+    "op": "core/column-addition",
+    "description": "Create column NteMetadata_tab(+ group='notebook') at index 42 based on column NteText0(+ group='notebook') using expression jython:if value is not None:\n    return \"Yes\"\nelse:\n    return None",
+    "engineConfig": {
+      "mode": "row-based",
+      "facets": []
+    },
+    "newColumnName": "NteMetadata_tab(+ group='notebook')",
+    "columnInsertIndex": 42,
+    "baseColumnName": "NteText0(+ group='notebook')",
+    "expression": "jython:if value is not None:\n    return \"Yes\"\nelse:\n    return None",
+    "onError": "set-to-blank"
+  },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  {
+    "op": "core/column-addition",
+    "description": "Create column NteType_tab(+ group='notebook') at index 42 based on column NteText0(+ group='notebook') using expression jython:if value is not None:\n    return \"Collection Events Notes\"\nelse:\n    return None",
+    "engineConfig": {
+      "mode": "row-based",
+      "facets": []
+    },
+    "newColumnName": "NteType_tab(+ group='notebook')",
+    "columnInsertIndex": 42,
+    "baseColumnName": "NteText0(+ group='notebook')",
+    "expression": "jython:if value is not None:\n    return \"Collection Events Notes\"\nelse:\n    return None",
+    "onError": "set-to-blank"
+  },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  {
+    "op": "core/column-addition",
+    "description": "Create column NteDate0(+ group='notebook') at index 42 based on column NteText0(+ group='notebook') using expression jython:if value is not None:\n    return \"08-Dec-2017\"\nelse:\n    return None",
+    "engineConfig": {
+      "mode": "row-based",
+      "facets": []
+    },
+    "newColumnName": "NteDate0(+ group='notebook')",
+    "columnInsertIndex": 42,
+    "baseColumnName": "NteText0(+ group='notebook')",
+    "expression": "jython:if value is not None:\n    return \"08-Dec-2017\"\nelse:\n    return None",
+    "onError": "set-to-blank"
+  },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  {
+    "op": "core/column-addition",
+    "description": "Create column NteAttributedToRef_nesttab(+ group='notebook':1).irn at index 42 based on column NteText0(+ group='notebook') using expression jython:if value is not None:\n    return \"10214970\"\nelse:\n    return None",
+    "engineConfig": {
+      "mode": "row-based",
+      "facets": []
+    },
+    "newColumnName": "NteAttributedToRef_nesttab(+ group='notebook':1).irn",
+    "columnInsertIndex": 42,
+    "baseColumnName": "NteText0(+ group='notebook')",
+    "expression": "jython:if value is not None:\n    return \"10214970\"\nelse:\n    return None",
+    "onError": "set-to-blank"
+  },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  {
+    "op": "core/column-addition",
+    "description": "Create column CatOtherNumbersType_tab(+ group='cat') at index 48 based on column CatOtherNumbersValue_tab(+ group='cat') using expression jython:if value is not None:\n     return \"Old Catalog Number\"\nelse:\n     return None",
+    "engineConfig": {
+      "mode": "row-based",
+      "facets": []
+    },
+    "newColumnName": "CatOtherNumbersType_tab(+ group='cat')",
+    "columnInsertIndex": 48,
+    "baseColumnName": "CatOtherNumbersValue_tab(+ group='cat')",
+    "expression": "jython:if value is not None:\n     return \"Old Catalog Number\"\nelse:\n     return None",
+    "onError": "set-to-blank"
+  },</t>
+  </si>
+  <si>
+    <t>if value is not None:
+     return "Old Catalog Number"
+else:
+    return None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  {
+    "op": "core/column-addition",
+    "description": "Create column CatOtherNumbersType_tab(+ group='field') at index 51 based on column /   using expression jython:if value is not None:\n     return \"Field Number\"\nelse:\n     return None",
+    "engineConfig": {
+      "mode": "row-based",
+      "facets": []
+    },
+    "newColumnName": "CatOtherNumbersType_tab(+ group='field')",
+    "columnInsertIndex": 51,
+    "baseColumnName": "CatOtherNumbersValue_tab(+ group='field')",
+    "expression": "jython:if value is not None:\n     return \"Field Number\"\nelse:\n     return None",
+    "onError": "set-to-blank"
+  }</t>
+  </si>
+  <si>
+    <t>if value is not None:
+     return "Field Number"
+else:
+    return None</t>
   </si>
 </sst>
 </file>
@@ -2975,8 +3278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D31" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2985,7 +3288,10 @@
     <col min="2" max="2" width="42.28515625" style="41" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45.85546875" style="41" customWidth="1"/>
     <col min="4" max="4" width="44.5703125" style="41" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="41"/>
+    <col min="5" max="5" width="8.85546875" style="41"/>
+    <col min="6" max="6" width="121" style="41" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="76" style="41" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -3196,7 +3502,7 @@
         <v>68</v>
       </c>
       <c r="F18" s="41" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -3300,7 +3606,7 @@
         <v>80</v>
       </c>
       <c r="F24" s="41" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -3359,10 +3665,10 @@
         <v>390</v>
       </c>
       <c r="F29" s="41" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G29" s="41" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H29" s="41" t="s">
         <v>404</v>
@@ -3383,10 +3689,10 @@
         <v>391</v>
       </c>
       <c r="F30" s="41" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G30" s="41" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="H30" s="41" t="s">
         <v>404</v>
@@ -3407,10 +3713,10 @@
         <v>392</v>
       </c>
       <c r="F31" s="41" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G31" s="41" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H31" s="41" t="s">
         <v>404</v>
@@ -3431,10 +3737,10 @@
         <v>393</v>
       </c>
       <c r="F32" s="41" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G32" s="41" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="H32" s="41" t="s">
         <v>404</v>
@@ -3457,6 +3763,15 @@
       </c>
       <c r="D34" s="41" t="s">
         <v>394</v>
+      </c>
+      <c r="F34" s="41" t="s">
+        <v>421</v>
+      </c>
+      <c r="G34" s="41" t="s">
+        <v>420</v>
+      </c>
+      <c r="H34" s="41" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -3474,7 +3789,10 @@
         <v>396</v>
       </c>
       <c r="F35" s="41" t="s">
-        <v>414</v>
+        <v>412</v>
+      </c>
+      <c r="G35" s="41" t="s">
+        <v>424</v>
       </c>
       <c r="H35" s="41" t="s">
         <v>404</v>
@@ -3495,7 +3813,10 @@
         <v>395</v>
       </c>
       <c r="F36" s="41" t="s">
-        <v>413</v>
+        <v>426</v>
+      </c>
+      <c r="G36" s="41" t="s">
+        <v>425</v>
       </c>
       <c r="H36" s="41" t="s">
         <v>404</v>
@@ -3516,7 +3837,10 @@
         <v>397</v>
       </c>
       <c r="F37" s="41" t="s">
-        <v>415</v>
+        <v>413</v>
+      </c>
+      <c r="G37" s="41" t="s">
+        <v>427</v>
       </c>
       <c r="H37" s="41" t="s">
         <v>404</v>
@@ -3537,7 +3861,10 @@
         <v>398</v>
       </c>
       <c r="F38" s="41" t="s">
-        <v>416</v>
+        <v>414</v>
+      </c>
+      <c r="G38" s="41" t="s">
+        <v>428</v>
       </c>
       <c r="H38" s="41" t="s">
         <v>404</v>
@@ -3574,6 +3901,15 @@
       </c>
       <c r="D41" s="41" t="s">
         <v>109</v>
+      </c>
+      <c r="F41" s="41" t="s">
+        <v>423</v>
+      </c>
+      <c r="G41" s="41" t="s">
+        <v>422</v>
+      </c>
+      <c r="H41" s="41" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -3590,6 +3926,15 @@
       <c r="E42" s="41" t="s">
         <v>395</v>
       </c>
+      <c r="F42" s="41" t="s">
+        <v>429</v>
+      </c>
+      <c r="G42" s="41" t="s">
+        <v>431</v>
+      </c>
+      <c r="H42" s="41" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="46"/>
@@ -3605,6 +3950,15 @@
       <c r="E43" s="41" t="s">
         <v>396</v>
       </c>
+      <c r="F43" s="41" t="s">
+        <v>412</v>
+      </c>
+      <c r="G43" s="41" t="s">
+        <v>432</v>
+      </c>
+      <c r="H43" s="41" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="46"/>
@@ -3620,6 +3974,15 @@
       <c r="E44" s="41" t="s">
         <v>397</v>
       </c>
+      <c r="F44" s="41" t="s">
+        <v>413</v>
+      </c>
+      <c r="G44" s="41" t="s">
+        <v>433</v>
+      </c>
+      <c r="H44" s="41" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="46"/>
@@ -3635,6 +3998,15 @@
       <c r="E45" s="41" t="s">
         <v>398</v>
       </c>
+      <c r="F45" s="41" t="s">
+        <v>414</v>
+      </c>
+      <c r="G45" s="41" t="s">
+        <v>434</v>
+      </c>
+      <c r="H45" s="41" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="46" t="s">
@@ -3645,6 +4017,15 @@
       </c>
       <c r="C46" s="41" t="s">
         <v>117</v>
+      </c>
+      <c r="F46" s="41" t="s">
+        <v>437</v>
+      </c>
+      <c r="G46" s="41" t="s">
+        <v>435</v>
+      </c>
+      <c r="H46" s="41" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -3661,6 +4042,15 @@
       <c r="E47" s="41" t="s">
         <v>391</v>
       </c>
+      <c r="F47" s="41" t="s">
+        <v>412</v>
+      </c>
+      <c r="G47" s="41" t="s">
+        <v>438</v>
+      </c>
+      <c r="H47" s="41" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="46"/>
@@ -3676,8 +4066,17 @@
       <c r="E48" s="41" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" s="41" t="s">
+        <v>430</v>
+      </c>
+      <c r="G48" s="41" t="s">
+        <v>439</v>
+      </c>
+      <c r="H48" s="41" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="45"/>
       <c r="B49" s="47" t="s">
         <v>121</v>
@@ -3691,8 +4090,17 @@
       <c r="E49" s="41" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49" s="41" t="s">
+        <v>413</v>
+      </c>
+      <c r="G49" s="41" t="s">
+        <v>440</v>
+      </c>
+      <c r="H49" s="41" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="45"/>
       <c r="B50" s="47" t="s">
         <v>122</v>
@@ -3706,8 +4114,17 @@
       <c r="E50" s="41" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50" s="41" t="s">
+        <v>414</v>
+      </c>
+      <c r="G50" s="41" t="s">
+        <v>441</v>
+      </c>
+      <c r="H50" s="41" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="44" t="s">
         <v>123</v>
       </c>
@@ -3718,7 +4135,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="46" t="s">
         <v>126</v>
       </c>
@@ -3728,11 +4145,23 @@
       <c r="C52" s="41" t="s">
         <v>52</v>
       </c>
+      <c r="D52" s="41" t="s">
+        <v>324</v>
+      </c>
       <c r="E52" s="41" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52" s="41" t="s">
+        <v>443</v>
+      </c>
+      <c r="G52" s="41" t="s">
+        <v>442</v>
+      </c>
+      <c r="H52" s="41" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="49" t="s">
         <v>128</v>
       </c>
@@ -3743,7 +4172,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="46" t="s">
         <v>130</v>
       </c>
@@ -3753,11 +4182,23 @@
       <c r="C54" s="41" t="s">
         <v>52</v>
       </c>
+      <c r="D54" s="41" t="s">
+        <v>123</v>
+      </c>
       <c r="E54" s="41" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54" s="41" t="s">
+        <v>445</v>
+      </c>
+      <c r="G54" s="41" t="s">
+        <v>444</v>
+      </c>
+      <c r="H54" s="41" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B55" s="45" t="s">
         <v>132</v>
       </c>
@@ -3768,8 +4209,8 @@
         <v>402</v>
       </c>
     </row>
-    <row r="61" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="42" t="s">
         <v>134</v>
       </c>
@@ -3778,7 +4219,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="41" t="s">
         <v>27</v>
       </c>
@@ -3786,7 +4227,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="41" t="s">
         <v>9</v>
       </c>
